--- a/src/excel/SpanishEnglish-CLOTH2.xlsx
+++ b/src/excel/SpanishEnglish-CLOTH2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58EB461-FA81-466E-B622-CAA52033E7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234DD400-3F9C-404E-9651-B7E586FF6C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5A4D08B2-F01B-4F37-8FDD-E521589D2853}"/>
+    <workbookView xWindow="10065" yWindow="3735" windowWidth="10425" windowHeight="7065" xr2:uid="{5A4D08B2-F01B-4F37-8FDD-E521589D2853}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
   <si>
     <t>español</t>
   </si>
   <si>
-    <t>inglés</t>
-  </si>
-  <si>
     <t>chaqueta tipo sudadera</t>
   </si>
   <si>
@@ -226,6 +223,102 @@
   </si>
   <si>
     <t>tees</t>
+  </si>
+  <si>
+    <t>jodi yaket</t>
+  </si>
+  <si>
+    <t>pofer yaket</t>
+  </si>
+  <si>
+    <t>baik short</t>
+  </si>
+  <si>
+    <t>sherpa polouver</t>
+  </si>
+  <si>
+    <t>jodi tii</t>
+  </si>
+  <si>
+    <t>esp'orts bra</t>
+  </si>
+  <si>
+    <t>daun yaket</t>
+  </si>
+  <si>
+    <t>sut pent</t>
+  </si>
+  <si>
+    <t>sut esk'ert</t>
+  </si>
+  <si>
+    <t>kemi</t>
+  </si>
+  <si>
+    <t>enorak yaket</t>
+  </si>
+  <si>
+    <t>shoulder pad tii</t>
+  </si>
+  <si>
+    <t>leging yin</t>
+  </si>
+  <si>
+    <t>I'ouk blaus</t>
+  </si>
+  <si>
+    <t>tunec blaus</t>
+  </si>
+  <si>
+    <t>sueid cout</t>
+  </si>
+  <si>
+    <t>uol yaket</t>
+  </si>
+  <si>
+    <t>jai lou jem dres</t>
+  </si>
+  <si>
+    <t>tuel pent</t>
+  </si>
+  <si>
+    <t>peiperbag pent</t>
+  </si>
+  <si>
+    <t>ker'ier blaus</t>
+  </si>
+  <si>
+    <t>krapt jodi</t>
+  </si>
+  <si>
+    <t>simless tenk</t>
+  </si>
+  <si>
+    <t>tiis</t>
+  </si>
+  <si>
+    <t>boifrend denem</t>
+  </si>
+  <si>
+    <t>belted</t>
+  </si>
+  <si>
+    <t>rap top</t>
+  </si>
+  <si>
+    <t>nit suerer</t>
+  </si>
+  <si>
+    <t>crinkol tii</t>
+  </si>
+  <si>
+    <t>krap top</t>
+  </si>
+  <si>
+    <t>pofer vest</t>
+  </si>
+  <si>
+    <t>kemesol shert</t>
   </si>
 </sst>
 </file>
@@ -590,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610713F9-A4F4-4FFC-839F-D333E67964FC}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,13 +698,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -619,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,13 +726,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -647,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -661,13 +754,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -675,13 +768,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -689,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -703,13 +796,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -717,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -731,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,13 +852,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,13 +866,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,13 +880,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -801,13 +894,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -815,13 +908,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -829,13 +922,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -843,13 +936,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -857,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -871,13 +964,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -885,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -913,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -927,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -941,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -955,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -969,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -983,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,13 +1118,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,13 +1132,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
